--- a/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,93%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,49; 10,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; 16,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 16,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 9,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,5; 36,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,4; 83,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,87; 156,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,81; 81,4</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,12%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 5,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,49; 4,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; -0,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,49; 17,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,65; 16,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,2; -0,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,36; -4,61</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 7,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 4,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 5,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,07; 28,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,03; 9,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,69; 19,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,86; 40,42</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,05%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,96; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,74; 4,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,69; 1,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,37; 8,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,16; 18,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,32; 12,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,81; 6,81</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 5,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 3,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 3,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 3,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 20,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,77; 12,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,46; 16,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 23,71</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,23%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 2,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 1,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 0,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 0,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,27; 9,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 4,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 3,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 4,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>-2,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>-23,75%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 10,99</t>
+          <t>-7,45; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 16,52</t>
+          <t>-5,43; 4,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 16,65</t>
+          <t>-9,17; 1,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 9,28</t>
+          <t>-10,92; -1,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 36,81</t>
+          <t>-18,46; 14,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 83,65</t>
+          <t>-18,21; 18,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 156,24</t>
+          <t>-28,54; 5,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 81,4</t>
+          <t>-40,13; -5,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-5,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,52%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,12%</t>
+          <t>34,05%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 5,74</t>
+          <t>-1,86; 7,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 4,15</t>
+          <t>-6,34; 2,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,0</t>
+          <t>-3,65; 4,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,76; -0,85</t>
+          <t>-0,04; 11,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 17,06</t>
+          <t>-6,07; 28,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 16,95</t>
+          <t>-18,03; 9,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,2; -0,35</t>
+          <t>-12,69; 19,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,36; -4,61</t>
+          <t>-1,4; 147,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>-8,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,33%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>-17,06%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,65</t>
+          <t>-8,96; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,84</t>
+          <t>-5,74; 4,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,7</t>
+          <t>-7,71; 3,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 5,25</t>
+          <t>-15,13; 5,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 28,53</t>
+          <t>-23,37; 8,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 9,92</t>
+          <t>-17,16; 18,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 19,13</t>
+          <t>-21,32; 12,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 40,42</t>
+          <t>-58,42; 23,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>-3,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>-3,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,05%</t>
+          <t>-5,68%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 2,56</t>
+          <t>-4,09; 5,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 4,86</t>
+          <t>-5,64; 3,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,75</t>
+          <t>-5,24; 3,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 1,52</t>
+          <t>-4,75; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 8,0</t>
+          <t>-12,75; 20,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 18,22</t>
+          <t>-17,77; 12,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 12,29</t>
+          <t>-20,46; 16,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 6,81</t>
+          <t>-27,69; 18,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-2,79%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,13</t>
+          <t>-2,38; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 3,41</t>
+          <t>-3,67; 1,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,4</t>
+          <t>-3,68; 0,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,27</t>
+          <t>-3,86; 3,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 20,32</t>
+          <t>-7,27; 9,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 12,58</t>
+          <t>-11,64; 4,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 16,2</t>
+          <t>-12,85; 3,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 23,71</t>
+          <t>-19,69; 25,27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-3,57%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-4,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-7,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 2,75</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 1,39</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 0,93</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 0,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-7,27; 9,11</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-11,64; 4,87</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 3,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-18,52; 4,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 4,91</t>
+          <t>-7,55; 4,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 4,55</t>
+          <t>-5,89; 4,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 1,5</t>
+          <t>-9,9; 1,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -1,24</t>
+          <t>-11,17; -1,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 14,63</t>
+          <t>-18,7; 12,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 18,49</t>
+          <t>-19,8; 16,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 5,54</t>
+          <t>-29,45; 6,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,13; -5,96</t>
+          <t>-39,92; -5,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,65</t>
+          <t>-2,29; 7,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,84</t>
+          <t>-6,28; 2,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,7</t>
+          <t>-3,85; 4,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 11,29</t>
+          <t>-0,5; 11,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 28,53</t>
+          <t>-7,07; 27,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 9,92</t>
+          <t>-18,32; 9,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 19,13</t>
+          <t>-13,64; 18,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 147,5</t>
+          <t>-3,76; 155,78</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 2,56</t>
+          <t>-8,77; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 4,86</t>
+          <t>-5,49; 5,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,75</t>
+          <t>-7,09; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 5,34</t>
+          <t>-17,11; 4,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 8,0</t>
+          <t>-22,78; 8,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 18,22</t>
+          <t>-16,0; 18,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 12,29</t>
+          <t>-19,16; 13,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 23,14</t>
+          <t>-62,52; 20,3</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,13</t>
+          <t>-4,3; 5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 3,41</t>
+          <t>-5,07; 3,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,4</t>
+          <t>-4,97; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,43</t>
+          <t>-4,91; 2,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 20,32</t>
+          <t>-13,94; 20,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 12,58</t>
+          <t>-16,47; 14,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 16,2</t>
+          <t>-19,57; 14,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 18,07</t>
+          <t>-28,25; 20,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,75</t>
+          <t>-2,45; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,39</t>
+          <t>-3,71; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,93</t>
+          <t>-3,69; 1,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,95</t>
+          <t>-3,8; 3,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 9,11</t>
+          <t>-7,47; 9,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 4,87</t>
+          <t>-11,76; 4,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 3,53</t>
+          <t>-13,26; 4,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 25,27</t>
+          <t>-19,72; 24,24</t>
         </is>
       </c>
     </row>
